--- a/assets/PriorTool_Input_Data_2.xlsx
+++ b/assets/PriorTool_Input_Data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9485D-AC1B-C348-B978-5838561C060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A217F467-4FB7-8C47-8FC3-89E8FF9A9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Speaker Role?</t>
   </si>
   <si>
-    <t>Number of SANDIWCHES expected?</t>
-  </si>
-  <si>
     <t>Is there a relevant network?</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Are we a Co-Sender?</t>
+  </si>
+  <si>
+    <t>Number of Leads expected?</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>

--- a/assets/PriorTool_Input_Data_2.xlsx
+++ b/assets/PriorTool_Input_Data_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A217F467-4FB7-8C47-8FC3-89E8FF9A9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6241F-BB1C-1B4A-8F71-5BC6F867016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
+    <workbookView xWindow="14980" yWindow="760" windowWidth="19580" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
-  <si>
-    <t>Is there Food?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>binary</t>
   </si>
   <si>
-    <t>How much food is there?</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
@@ -68,21 +62,12 @@
     <t>Network Meeting</t>
   </si>
   <si>
-    <t>Is there Networking?</t>
-  </si>
-  <si>
     <t>How much networking is there?</t>
   </si>
   <si>
     <t>Innovation Project</t>
   </si>
   <si>
-    <t>Is there Innovation?</t>
-  </si>
-  <si>
-    <t>How much Innovation is there?</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -95,12 +80,6 @@
     <t>Value For Society</t>
   </si>
   <si>
-    <t>Speaker Role?</t>
-  </si>
-  <si>
-    <t>Is there a relevant network?</t>
-  </si>
-  <si>
     <t>Do we have stage time?</t>
   </si>
   <si>
@@ -111,6 +90,72 @@
   </si>
   <si>
     <t>Number of Leads expected?</t>
+  </si>
+  <si>
+    <t>Are our Member(s) co-sender(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there facilitated Matchmaking activities? </t>
+  </si>
+  <si>
+    <t>Can a Member have stagetime?</t>
+  </si>
+  <si>
+    <t>Can this activity be accounted for as co-financing?</t>
+  </si>
+  <si>
+    <t>Is there knowledge spreading to a general audience?</t>
+  </si>
+  <si>
+    <t>Are WBDK positioned as a social front-runner?</t>
+  </si>
+  <si>
+    <t>Is there potential to influence the branch as a whole?</t>
+  </si>
+  <si>
+    <t>Is Sustainability a focus?</t>
+  </si>
+  <si>
+    <t>TBD?</t>
+  </si>
+  <si>
+    <t>Is there a Speaker Role for the Member?</t>
+  </si>
+  <si>
+    <t>Is there a relevat strategic focus?</t>
+  </si>
+  <si>
+    <t>Expected number of participants?</t>
+  </si>
+  <si>
+    <t>Is there potential to identify project partners?</t>
+  </si>
+  <si>
+    <t>Does the network handle a currently-relevant theme/topic?</t>
+  </si>
+  <si>
+    <t>Does the Project provide funding to the Member?</t>
+  </si>
+  <si>
+    <t>What percentage of the Member Effort is co-financed in % ?</t>
+  </si>
+  <si>
+    <t>Does the project provide access to "free" resources?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the value of the "free" resources in DKK ? </t>
+  </si>
+  <si>
+    <t>Will the Project generate new knowledge for society?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Project have a relevant political link? </t>
+  </si>
+  <si>
+    <t>Will the Project produce a sharable demonstrator?</t>
+  </si>
+  <si>
+    <t>Does the project support internationalisation or cross-border activities?</t>
   </si>
 </sst>
 </file>
@@ -491,7 +536,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,300 +551,300 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0.3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0.8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>0.33</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>0.2</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0.8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0.4</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
         <v>0.2</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0.1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0.1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>0.6</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
         <v>0.4</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -808,194 +853,194 @@
         <v>0.9</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>0.4</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
         <v>0.6</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>0.7</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
         <v>0.4</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>0.9</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3">
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
         <v>0.7</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PriorTool_Input_Data_2.xlsx
+++ b/assets/PriorTool_Input_Data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F6241F-BB1C-1B4A-8F71-5BC6F867016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8CC91-CBBE-DC4B-8EBD-C121DB4A6047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="760" windowWidth="19580" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>binary</t>
   </si>
@@ -156,15 +156,24 @@
   </si>
   <si>
     <t>Does the project support internationalisation or cross-border activities?</t>
+  </si>
+  <si>
+    <t>Does the project generate co-financing?</t>
+  </si>
+  <si>
+    <t>How much is the expected co-financing in DKK?</t>
+  </si>
+  <si>
+    <t>Does the project require onboarding of new Members?</t>
+  </si>
+  <si>
+    <t>Will the project open up for new domains?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76784108-58B2-6945-B52F-A78989885E15}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,6 +1052,83 @@
         <v>13</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
